--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB4B76E-DD4A-4A18-8CF7-419729A86FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91959176-6895-41C9-8FEC-9A72C2D4E19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>等级2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>requirement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,22 +104,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>体质*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感知*1，敏捷*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感知或敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蛮力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,18 +116,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>再生力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迂回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敏捷*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敏捷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,47 +128,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本牌在堆叠顶时，堆叠不受其他牌影响。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全才</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量*1，敏捷*1，体质*1，感知*1，智力*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任意属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本牌在堆叠顶时，堆叠中可以包含不同种类的属性牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一堆叠中可以包含至多2张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一堆叠中可以包含至多3张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一堆叠中可以包含至多4张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一堆叠中可以包含至多5张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寻宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感知*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,92 +149,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掘墓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量*1，体质*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量或体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>透支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>体质*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种属性牌2张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种属性牌4张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种属性牌3张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种属性牌5张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌基数加1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手牌基数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任意属性牌合计5张，每拥有1张《手牌基数》，需求数量额外加5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大力士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量*3</t>
-  </si>
-  <si>
-    <t>力量*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本牌在堆叠顶时，堆叠点数加1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本牌在堆叠顶时，堆叠点数增加X，X为堆叠中《力量》牌的数量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横置本牌，正置2张其他升级牌。</t>
-  </si>
-  <si>
-    <t>受到1伤害，正置1张升级牌。</t>
-  </si>
-  <si>
-    <t>横置1张“体质”升级牌，回复2生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横置1张“敏捷”升级牌，重抽探索区一列牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横置1张“感知”升级牌，将事件牌堆第1张战利品牌放到牌堆顶。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横置1张“力量”升级牌或“体质”升级牌，将墓地顶端1张牌加入手牌。</t>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以使用至多包含2张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要拥有《等级2》才能购买。&lt;br&gt;
+可以使用至多包含3张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要拥有《等级3》才能购买。&lt;br&gt;可以使用至多包含4张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要拥有《等级4》才能购买。&lt;br&gt;可以使用至多包含5张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《手牌基数》，本牌的点数加2。&lt;br&gt;
+手牌基数加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《体质》，本牌点数减1，最低为2。&lt;br&gt;
+横置本牌，正置2张其他升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《体质》，本牌点数减1，最低为2。&lt;br&gt;
+横置本牌，回复2生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《敏捷》，本牌点数减1，最低为2。&lt;br&gt;
+本牌在堆叠顶时，堆叠不受其他效果影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《体质》，本牌点数减1，最低为3。&lt;br&gt;
+受到1伤害，正置1张升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《力量》，本牌点数减1，最低为3。&lt;br&gt;
+本牌在堆叠顶时，堆叠点数增加X，X为堆叠中《力量》牌的数量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《敏捷》，本牌点数减1，最低为2。&lt;br&gt;
+横置1张“敏捷”升级牌，重抽探索区一列牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《力量》，本牌点数减1，最低为2。&lt;br&gt;
+本牌在堆叠顶时，堆叠点数加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强壮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张属性牌，本牌点数减1，最低为4。&lt;br&gt;
+本牌在堆叠顶时，堆叠中可以包含不同种类的升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《感知》，本牌点数减1，最低为2。&lt;br&gt;
+横置本牌，获得遭遇牌堆第1张战利品牌或将其放到遭遇牌堆顶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《感知》，本牌点数减1，最低为2。&lt;br&gt;
+横置本牌，将墓地顶端1张牌加入手牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,12 +294,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -635,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,224 +596,224 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
+      <c r="B10">
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>50</v>
+      <c r="B12">
+        <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="str" cm="1">
-        <f t="array" ref="E16">_xlfn.SWITCH(B16, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
-        <v/>
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="e" cm="1">
+        <f t="array" ref="E16">_xlfn.SWITCH(#REF!, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
+        <v>#REF!</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91959176-6895-41C9-8FEC-9A72C2D4E19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66EE92A-FC69-4D85-BB58-C57E998A8D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -772,7 +772,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66EE92A-FC69-4D85-BB58-C57E998A8D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132A099-FE9B-4850-8E93-3198D4D0DA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,19 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要拥有《等级2》才能购买。&lt;br&gt;
-可以使用至多包含3张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要拥有《等级3》才能购买。&lt;br&gt;可以使用至多包含4张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要拥有《等级4》才能购买。&lt;br&gt;可以使用至多包含5张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每拥有1张《手牌基数》，本牌的点数加2。&lt;br&gt;
 手牌基数加1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +229,19 @@
   <si>
     <t>每拥有1张《感知》，本牌点数减1，最低为2。&lt;br&gt;
 横置本牌，将墓地顶端1张牌加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级2》，则重抽本牌。&lt;br&gt;
+可以使用至多包含3张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级3》，则重抽本牌。&lt;br&gt;可以使用至多包含4张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级4》，则重抽本牌。&lt;br&gt;可以使用至多包含5张牌的堆叠。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -633,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -655,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -666,12 +666,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
@@ -722,12 +722,12 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -736,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
@@ -792,12 +792,12 @@
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -806,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" t="e" cm="1">
         <f t="array" ref="E16">_xlfn.SWITCH(#REF!, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132A099-FE9B-4850-8E93-3198D4D0DA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A574E90-0C40-442B-ACC5-DE0B4003D573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,20 +153,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手牌基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可以使用至多包含2张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有1张《手牌基数》，本牌的点数加2。&lt;br&gt;
-手牌基数加1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,6 +233,15 @@
   </si>
   <si>
     <t>进入备选升级牌区时：如果玩家未拥有《等级4》，则重抽本牌。&lt;br&gt;可以使用至多包含5张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张《手指》，本牌的点数加1。&lt;br&gt;
+手牌基数加1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -655,23 +655,23 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
@@ -722,12 +722,12 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -736,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
@@ -792,12 +792,12 @@
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -806,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" t="e" cm="1">
         <f t="array" ref="E16">_xlfn.SWITCH(#REF!, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A574E90-0C40-442B-ACC5-DE0B4003D573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3993FC-2D9E-4D90-B3EE-5CD5420D9043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>等级2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,11 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每拥有1张《体质》，本牌点数减1，最低为2。&lt;br&gt;
-横置本牌，回复2生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>再生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,27 +180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每拥有1张《力量》，本牌点数减1，最低为3。&lt;br&gt;
-本牌在堆叠顶时，堆叠点数增加X，X为堆叠中《力量》牌的数量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有1张《敏捷》，本牌点数减1，最低为2。&lt;br&gt;
-横置1张“敏捷”升级牌，重抽探索区一列牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有1张《力量》，本牌点数减1，最低为2。&lt;br&gt;
-本牌在堆叠顶时，堆叠点数加1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>强壮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有1张属性牌，本牌点数减1，最低为4。&lt;br&gt;
-本牌在堆叠顶时，堆叠中可以包含不同种类的升级牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,12 +211,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有1张《手指》，本牌的点数加1。&lt;br&gt;
-手牌基数加1。</t>
+    <t>maxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值上限加1，战利品区容量加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌基数加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有1张属性牌，本牌点数减1，最低为1。&lt;br&gt;
+本牌在堆叠顶时，堆叠中可以包含不同种类的升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置1张“敏捷”牌，重抽探索区一列牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诈降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向战场出牌时，每1行可以将至多1张牌出在敌对侧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划妥当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻选时，可以将未被选择的牌以任意顺序放回原牌堆顶或原牌堆底。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战术布置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼唤效果发动时，如果发动该效果的牌由玩家控制，则玩家可以选择将被呼唤的牌放置在其左侧或右侧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息时，每消耗1时间，可以回复1生命。&lt;br&gt;
+横置1张“体质”牌，回复2生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活手指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置1张“力量”牌，选房间区最前方1张牌，使其点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擒抱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本牌在堆叠顶时，堆叠点数增加X，X为堆叠中“力量”牌的数量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置本牌，选房间区或手牌1张怪物牌在本牌下方叠放。&lt;br&gt;
+正置时，将本牌下方叠放的所有牌依次放置在房间区任意列最前方。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,15 +628,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -599,221 +644,357 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="171" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="171" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="e" cm="1">
-        <f t="array" ref="E16">_xlfn.SWITCH(#REF!, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="e" cm="1">
+        <f t="array" ref="F20">_xlfn.SWITCH(#REF!, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>#REF!</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3993FC-2D9E-4D90-B3EE-5CD5420D9043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E00691-4140-4459-94B9-543F222CFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>等级2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任意属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寻宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,149 +118,152 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Can only be used once per Long Rest. &lt;br&gt;
-Can be used before making actions: Add the topmost card of Graveyardyard to your hand.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>透支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以使用至多包含2张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有1张《体质》，本牌点数减1，最低为2。&lt;br&gt;
-横置本牌，正置2张其他升级牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>再生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每拥有1张《敏捷》，本牌点数减1，最低为2。&lt;br&gt;
-本牌在堆叠顶时，堆叠不受其他效果影响。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有1张《体质》，本牌点数减1，最低为3。&lt;br&gt;
-受到1伤害，正置1张升级牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强壮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有1张《感知》，本牌点数减1，最低为2。&lt;br&gt;
-横置本牌，获得遭遇牌堆第1张战利品牌或将其放到遭遇牌堆顶。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发掘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每拥有1张《感知》，本牌点数减1，最低为2。&lt;br&gt;
-横置本牌，将墓地顶端1张牌加入手牌。</t>
+    <t>maxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划妥当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战术布置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活手指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擒抱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：可以使用至多包含2张牌的堆叠。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进入备选升级牌区时：如果玩家未拥有《等级2》，则重抽本牌。&lt;br&gt;
-可以使用至多包含3张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入备选升级牌区时：如果玩家未拥有《等级3》，则重抽本牌。&lt;br&gt;可以使用至多包含4张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入备选升级牌区时：如果玩家未拥有《等级4》，则重抽本牌。&lt;br&gt;可以使用至多包含5张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值上限加1，战利品区容量加1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌基数加1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有1张属性牌，本牌点数减1，最低为1。&lt;br&gt;
-本牌在堆叠顶时，堆叠中可以包含不同种类的升级牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横置1张“敏捷”牌，重抽探索区一列牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诈降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向战场出牌时，每1行可以将至多1张牌出在敌对侧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划妥当</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻选时，可以将未被选择的牌以任意顺序放回原牌堆顶或原牌堆底。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战术布置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼唤效果发动时，如果发动该效果的牌由玩家控制，则玩家可以选择将被呼唤的牌放置在其左侧或右侧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息时，每消耗1时间，可以回复1生命。&lt;br&gt;
-横置1张“体质”牌，回复2生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵活手指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横置1张“力量”牌，选房间区最前方1张牌，使其点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擒抱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本牌在堆叠顶时，堆叠点数增加X，X为堆叠中“力量”牌的数量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横置本牌，选房间区或手牌1张怪物牌在本牌下方叠放。&lt;br&gt;
-正置时，将本牌下方叠放的所有牌依次放置在房间区任意列最前方。</t>
+被动：可以使用至多包含3张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级3》，则重抽本牌。&lt;br&gt;被动：可以使用至多包含4张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级4》，则重抽本牌。&lt;br&gt;被动：可以使用至多包含5张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置1张“力量”牌，选房间区最前方1张牌，使其点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：手牌基数加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驼兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：生命值上限加1，战利品区容量加1，道具区容量加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置本牌，复位2张其他升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：受到1伤害，复位1张升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置本牌，选房间区或手牌1张怪物牌在本牌下方叠放。&lt;br&gt;
+本牌被复位时：将本牌下方叠放的所有牌依次放置在房间区任意列最前方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本牌在堆叠顶时：堆叠点数加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置1张“体质”牌，回复2生命。&lt;br&gt;
+主动：将1张手牌洗回主牌堆，回复2生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本牌在堆叠顶时：堆叠不受其他效果影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置1张“敏捷”牌，重抽探索区一列牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：选择交战目标时，可以依次选3个相邻且不全在同一行/列的槽位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：翻选时，可以将未被选择的牌以任意顺序放回原牌堆顶或原牌堆底。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：呼唤效果发动时，如果发动该效果的牌由玩家控制，则玩家可以选择将被呼唤的牌放置在其左侧或右侧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置本牌，获得遭遇牌堆第1张战利品牌或将其放到遭遇牌堆顶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置1张“感知”牌，获得遭遇牌弃牌堆最上方的1张战利品牌。&lt;br&gt;
+主动：横置本牌，将弃牌堆顶的1张牌加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：每拥有1张属性牌，本牌所需SP减1，最低为1。&lt;br&gt;
+本牌在堆叠顶时：堆叠中可以包含不同种类的升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：可以将升级牌放置在房间区的空槽位中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -662,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,11 +649,14 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -686,11 +666,14 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -700,11 +683,14 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -714,13 +700,16 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -732,12 +721,12 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -749,10 +738,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -766,12 +755,12 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -783,12 +772,12 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -800,12 +789,12 @@
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -817,10 +806,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -834,12 +823,12 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -851,10 +840,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -868,7 +857,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
@@ -885,12 +874,12 @@
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -899,15 +888,15 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -916,15 +905,15 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -933,32 +922,32 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -966,35 +955,46 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="e" cm="1">
-        <f t="array" ref="F20">_xlfn.SWITCH(#REF!, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>39</v>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E00691-4140-4459-94B9-543F222CFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D3B36-0F94-418D-A6EF-375060A67628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>等级2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重整旗鼓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轻身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全才</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +139,6 @@
   </si>
   <si>
     <t>灵活手指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -179,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主动：横置1张“力量”牌，选房间区最前方1张牌，使其点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被动：手牌基数加1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,19 +176,6 @@
   </si>
   <si>
     <t>被动：生命值上限加1，战利品区容量加1，道具区容量加1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动：横置本牌，复位2张其他升级牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动：受到1伤害，复位1张升级牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动：横置本牌，选房间区或手牌1张怪物牌在本牌下方叠放。&lt;br&gt;
-本牌被复位时：将本牌下方叠放的所有牌依次放置在房间区任意列最前方。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,11 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主动：横置1张“感知”牌，获得遭遇牌弃牌堆最上方的1张战利品牌。&lt;br&gt;
-主动：横置本牌，将弃牌堆顶的1张牌加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被动：每拥有1张属性牌，本牌所需SP减1，最低为1。&lt;br&gt;
 本牌在堆叠顶时：堆叠中可以包含不同种类的升级牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +230,48 @@
   </si>
   <si>
     <t>被动：可以将升级牌放置在房间区的空槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置本牌，选房间区1张怪物牌在本牌下方叠放。&lt;br&gt;
+本牌被复位时：将本牌下方叠放的牌放置在房间区任意槽位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摔投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置1张“力量”牌，将房间区1张牌移动到相邻槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：玩家可以用任意顺序结算场上的牌的定回合结束时效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐秘陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置1张“敏捷”牌，将手牌中1张陷阱牌放到房间区任意槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：玩受到1伤害，然后可以复位1张升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置1张“感知”牌，获得遭遇牌弃牌堆第1张战利品牌。&lt;br&gt;
+主动：横置本牌，将弃牌堆第1张牌加入手牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -650,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
@@ -667,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
@@ -684,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
@@ -701,15 +709,15 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -718,15 +726,15 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -735,32 +743,32 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -769,15 +777,15 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -786,15 +794,15 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -803,32 +811,32 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -837,15 +845,15 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -854,47 +862,47 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -905,15 +913,15 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -922,15 +930,15 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -939,15 +947,15 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>24</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -956,45 +964,62 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>53</v>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D3B36-0F94-418D-A6EF-375060A67628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658DA20-449E-4C9C-B274-CADD32A62FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,15 +246,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>霸气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动：玩家可以用任意顺序结算场上的牌的定回合结束时效果。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -272,6 +264,14 @@
   <si>
     <t>主动：横置1张“感知”牌，获得遭遇牌弃牌堆第1张战利品牌。&lt;br&gt;
 主动：横置本牌，将弃牌堆第1张牌加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身位控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：玩家可以用任意顺序结算场上牌的回合结束时效果。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -751,7 +751,7 @@
     </row>
     <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="199.5" x14ac:dyDescent="0.2">
@@ -885,12 +885,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -902,9 +902,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -913,15 +913,15 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -933,12 +933,12 @@
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -950,12 +950,12 @@
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -964,32 +964,33 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -997,13 +998,12 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658DA20-449E-4C9C-B274-CADD32A62FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10292E55-A46D-4258-8E7A-82D176E52F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>等级2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
   </si>
   <si>
     <t>计划妥当</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战术布置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闪电战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被动：呼唤效果发动时，如果发动该效果的牌由玩家控制，则玩家可以选择将被呼唤的牌放置在其左侧或右侧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主动：横置本牌，获得遭遇牌堆第1张战利品牌或将其放到遭遇牌堆顶。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被动：可以将升级牌放置在房间区的空槽位中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主动：横置本牌，选房间区1张怪物牌在本牌下方叠放。&lt;br&gt;
 本牌被复位时：将本牌下方叠放的牌放置在房间区任意槽位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +256,30 @@
   </si>
   <si>
     <t>被动：玩家可以用任意顺序结算场上牌的回合结束时效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速备战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：呼唤效果发动时，如果发动该效果的牌由玩家控制，则玩家可以将被呼唤的牌放置在其右侧而不是左侧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角战术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方阵战术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：选择交战目标时，可以依次选4个相邻且能够构成2*2方阵的槽位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：可以将手牌和升级牌在房间区的任意槽位中打出。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -658,10 +666,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
@@ -675,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
@@ -692,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
@@ -709,15 +717,15 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -729,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
@@ -746,12 +754,12 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -763,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
@@ -780,12 +788,12 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -797,12 +805,12 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -814,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -831,12 +839,12 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -848,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
@@ -865,12 +873,12 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -882,29 +890,29 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -916,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
@@ -933,12 +941,12 @@
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -950,76 +958,93 @@
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>45</v>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10292E55-A46D-4258-8E7A-82D176E52F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B77A7C-2FBF-4E68-96FA-82C2C53B9438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,41 +150,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进入备选升级牌区时：如果玩家未拥有《等级2》，则重抽本牌。&lt;br&gt;
-被动：可以使用至多包含3张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入备选升级牌区时：如果玩家未拥有《等级3》，则重抽本牌。&lt;br&gt;被动：可以使用至多包含4张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入备选升级牌区时：如果玩家未拥有《等级4》，则重抽本牌。&lt;br&gt;被动：可以使用至多包含5张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被动：手牌基数加1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>驼兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动：生命值上限加1，战利品区容量加1，道具区容量加1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本牌在堆叠顶时：堆叠点数加1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动：横置1张“体质”牌，回复2生命。&lt;br&gt;
-主动：将1张手牌洗回主牌堆，回复2生命。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -280,6 +254,33 @@
   </si>
   <si>
     <t>被动：可以将手牌和升级牌在房间区的任意槽位中打出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级2》，则从升级牌堆中选1张《等级2》替换本牌。&lt;br&gt;
+被动：可以使用至多包含3张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级3》，则从升级牌堆中选1张《等级3》替换本牌。&lt;br&gt;被动：可以使用至多包含4张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级4》，则从升级牌堆中选1张《等级4》替换本牌。&lt;br&gt;被动：可以使用至多包含5张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：横置1张“体质”牌，回复1生命。&lt;br&gt;
+主动：将1张手牌洗回主牌堆，回复1生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强韧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：最大生命值加2。&lt;br&gt;
+获得本牌时：回复所有生命值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -634,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -672,7 +673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -686,10 +687,10 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -703,10 +704,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -720,24 +721,24 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
@@ -754,12 +755,12 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -771,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
@@ -779,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -788,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="199.5" x14ac:dyDescent="0.2">
@@ -805,12 +806,12 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -822,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -839,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -856,7 +857,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
@@ -873,12 +874,12 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -890,12 +891,12 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -907,12 +908,12 @@
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -924,7 +925,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
@@ -941,12 +942,12 @@
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -958,12 +959,12 @@
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -975,7 +976,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -992,7 +993,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
@@ -1009,13 +1010,13 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1027,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
@@ -1044,7 +1045,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B77A7C-2FBF-4E68-96FA-82C2C53B9438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EEC828-366B-4801-9610-B0B425BA83E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主动：玩受到1伤害，然后可以复位1张升级牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主动：横置1张“感知”牌，获得遭遇牌弃牌堆第1张战利品牌。&lt;br&gt;
 主动：横置本牌，将弃牌堆第1张牌加入手牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +277,10 @@
   <si>
     <t>被动：最大生命值加2。&lt;br&gt;
 获得本牌时：回复所有生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：玩家受到1伤害，然后可以复位1张升级牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
@@ -721,12 +721,12 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -738,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="199.5" x14ac:dyDescent="0.2">
@@ -896,7 +896,7 @@
     </row>
     <row r="16" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
     </row>
     <row r="19" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -976,7 +976,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -1010,13 +1010,13 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">

--- a/sheet/SkillCardData.xlsx
+++ b/sheet/SkillCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EEC828-366B-4801-9610-B0B425BA83E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518BCC11-1B07-4855-9C27-9648D9214A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,19 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进入备选升级牌区时：如果玩家未拥有《等级2》，则从升级牌堆中选1张《等级2》替换本牌。&lt;br&gt;
-被动：可以使用至多包含3张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入备选升级牌区时：如果玩家未拥有《等级3》，则从升级牌堆中选1张《等级3》替换本牌。&lt;br&gt;被动：可以使用至多包含4张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入备选升级牌区时：如果玩家未拥有《等级4》，则从升级牌堆中选1张《等级4》替换本牌。&lt;br&gt;被动：可以使用至多包含5张牌的堆叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主动：横置1张“体质”牌，回复1生命。&lt;br&gt;
 主动：将1张手牌洗回主牌堆，回复1生命。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +268,19 @@
   </si>
   <si>
     <t>主动：玩家受到1伤害，然后可以复位1张升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级2》，则从升级牌堆中选1张《等级2》替换本牌，若未找到，则重抽本牌。&lt;br&gt;
+被动：可以使用至多包含3张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级3》，则从升级牌堆中选1张《等级3》替换本牌，若未找到，则重抽本牌。&lt;br&gt;被动：可以使用至多包含4张牌的堆叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入备选升级牌区时：如果玩家未拥有《等级4》，则从升级牌堆中选1张《等级4》替换本牌，若未找到，则重抽本牌。&lt;br&gt;被动：可以使用至多包含5张牌的堆叠。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,7 +673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -687,10 +687,10 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -704,10 +704,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -721,12 +721,12 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -738,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="199.5" x14ac:dyDescent="0.2">
